--- a/similarities/split_global/harmonic_similarity_timestamps_86.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_86.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_37</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:min7', 'F:7']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:min7', 'G:7']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:04.800000', '0:00:06.270000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:35.150000', '0:00:41.300000')]</t>
+          <t>('0:00:16.240000', '0:00:18.880000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=4.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-37#t=35.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'A:min7/C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['C', 'G/3', 'A:min7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:23.080000', '0:00:30.920000')]</t>
+          <t>('0:01:04.320000', '0:01:06.920000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:07.360000', '0:00:17.780000')]</t>
+          <t>('0:00:24.259614', '0:00:27.476822')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=23.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=64.32</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=24.259614</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'G:(3,5,b7,b9)', 'C:min']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:56.160000', '0:01:00.700000')]</t>
+          <t>('0:00:38.200000', '0:00:41.060000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:21.760000', '0:00:27.920000')]</t>
+          <t>('0:00:37.200000', '0:00:44.560000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=56.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=38.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=21.76']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=37.2</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:34.060000', '0:01:53.500000')]</t>
+          <t>('0:00:15.216000', '0:00:34.866000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
+          <t>('0:00:57.480000', '0:01:08.700000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=94.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-101#t=30.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:34.560000', '0:00:36.420000'), ('0:00:08.300000', '0:00:12.960000'), ('0:00:34.340000', '0:00:35.880000')]</t>
+          <t>('0:00:24.420000', '0:00:32.620000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:22.680000', '0:00:41.840000'), ('0:00:00.360000', '0:00:05'), ('0:00:50.580000', '0:00:59.480000')]</t>
+          <t>('0:00:24.760000', '0:00:32.420000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=34.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=34.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=24.42</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=22.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=50.58']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Db', 'Ab', 'Db:maj6/2']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'A:min7/C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:01:03.858000', '0:01:20.628000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
+          <t>('0:01:04.320000', '0:01:06.920000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=63.858</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=64.32</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:min7/4', 'E:7', 'A']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:47.371000', '0:00:50.945000')]</t>
+          <t>('0:00:27.600000', '0:00:54.260000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:08.350000', '0:00:11.880000')]</t>
+          <t>('0:00:31.910000', '0:00:44.110000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=47.371']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=27.6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>isophonics_87</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'A:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:01:06.427052', '0:01:11.593492')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
+          <t>('0:00:54.620000', '0:01:00.500000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-87#t=66.427052</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=54.62</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A', 'D', 'A']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A', 'D', 'A']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:06.506000', '0:02:28.631000')]</t>
+          <t>('0:01:20.200000', '0:01:26.860000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:27.963197', '0:00:43.926916')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=126.506']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=27.963197']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
+          <t>['E:7', 'A:min', 'G#:dim7', 'A:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7/b7', 'Ab']]</t>
+          <t>['G:7', 'C:min', 'B:dim7/C', 'C:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:25.390000', '0:00:37.670000')]</t>
+          <t>('0:00:19.380000', '0:00:25.360000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:07.604557', '0:00:16.370090')]</t>
+          <t>('0:01:15.980000', '0:01:25.720000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=25.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=19.38</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=7.604557']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=75.98</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:00:02.640000', '0:00:07.300000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:00.340000', '0:00:04.840000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C']]</t>
+          <t>['Ab', 'Db/5', 'Ab', 'Db/5']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:08.180000')]</t>
+          <t>('0:02:34.760000', '0:02:40.980000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:21.170000', '0:00:25.690000')]</t>
+          <t>('0:04:21.828000', '0:04:33.028000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G/5', 'D', 'G/5', 'D']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:31.840929', '0:00:39.410634')]</t>
+          <t>('0:00:00.380000', '0:00:08.900000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.391000', '0:00:26.250000')]</t>
+          <t>('0:00:27.600000', '0:00:47.440000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=21.391']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=27.6</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb', 'Bb:7/3']]</t>
+          <t>['C#:maj/G#', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:maj', 'F:7/b7']]</t>
+          <t>['Ab:maj', 'Bb:7', 'Eb:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:09.660000', '0:00:11.390000')]</t>
+          <t>('0:00:52.240000', '0:00:56.140000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:47.673000', '0:00:53.859000')]</t>
+          <t>('0:00:40.918000', '0:00:45.018000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=9.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=52.24</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=47.673']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=40.918</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:43.320000', '0:00:47.420000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:37.940000', '0:00:45.580000')]</t>
+          <t>('0:01:24', '0:01:30.840000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=43.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=37.94']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
